--- a/big-data/big-data-capstone/project/data/beer_n_Heretic Evil Twin.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Heretic Evil Twin.xlsx
@@ -776,7 +776,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cheeseboard(3,852)
+          <t>Cheeseboard(3,865)
 🇬🇧England
 3.8June 9, 2021
 Can online from Malt Miller. Pours unclear dark ruby brown with a beige head. Aroma: sweet malt, caramel, fruit &amp; pine. Taste: light to moderate sweet &amp; moderate bitter. Malt forward,…
@@ -918,7 +918,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CacheManyHose(1,271)
+          <t>CacheManyHose(1,272)
 🇭🇰Hong Kong
 3.6December 9, 2020
 Not bad - quite malt forward. Bready, caramel, slight hints of red malt. Balanced by resin grassy hop.
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jbruner(8,826)
+          <t>jbruner(8,828)
 🇺🇸Lakewood, United States
 3.6July 19, 2020
 Pours a mostly clear copper color on tap with fluffy tan khaki foam that dissipates slowly to leave moderate lace. Aroma of bitter pine hop notes with a touch of earthy melanoidin and…
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SVD(5,169)
+          <t>SVD(5,171)
 🇳🇱Nijmegen, Netherlands
 3.7July 6, 2020
 Can at home, dark red brown beer, small head. Aroma is malt, caramel, hops, citrus, some resin. Taste is the same, bitter, resinous, caramel,. Very nice.
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jybi(2,066)
+          <t>jybi(2,071)
 🇳🇨Nouméa, New Caledonia
 4.0February 26, 2020
 Quel dommage que cette Evil Twin, IPA possédant de bonnes qualités et attrayante jusqu'à la seconde bouche s'écrase totalement sur le final, laissant un goût d'inachevé et surtout…
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mjik83(3,704)
+          <t>mjik83(3,712)
 🇳🇱Maastricht, Netherlands
 3.8October 29, 2019
 35,5cl blik via Het Bierhuis, Breda
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>colui72(3,999)
+          <t>colui72(4,004)
 🇭🇰Yuen Long, Hong Kong
 3.8September 23, 2019
 Canned on 29/5/2019 but still feel quite fresh. Copper pour with a firm off-white head, which laces excellently. Aroma of caramel, citrus peel and pine. Tastes moderate bitter, strong…
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Beese(14,077)
+          <t>Beese(14,086)
 🇬🇧Tooting, London, England
 4.0September 22, 2019
 Keg at Mother Kelly's, Bethnal Green in 2014. Bright Ruby and clear, with a dense off white head. Aroma of U.S. Hop oil, redcurrant and Earthy notes. Berries in the flavour, with some…
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BBHansen(2,627)
+          <t>BBHansen(2,629)
 🇩🇰Køge, Denmark
 3.4April 27, 2018
 Tap @ Hugos w DØE Gert. Appearance: pours hazy amber with ok off-white soapy head and lacing. aroma/taste: barley, light caramel, light grapefruit and earthy notes. palette: strong us…
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rubin77(7,793)
+          <t>Rubin77(7,802)
 🇧🇪Brussels, Belgium
 3.8January 29, 2018
 F: huge, tan, long lasting.
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>hrabren(6,448)
+          <t>hrabren(6,451)
 🇭🇷Zagreb, Croatia
 3.6December 26, 2017
 Bottle shared at a drinking session with Višnja 666 and Pilot Goran in the summer of 2017. Thanks! Clear amber to ruby red colour, small off-white head. Lightly hoppy, fruity and malty,…
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>djd07(27,323)
+          <t>djd07(27,324)
 🇺🇸Houston, United States
 3.5December 26, 2017
 On tap at GABF, pours a dark amber with small beige head that lasts. The aroma is resin, pine, citrus. Medium body, grapefruit, pine, lingering bitterness, very good.
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Theydon_Bois(35,610)
+          <t>Theydon_Bois(35,622)
 🇬🇧Hazlemere, the lower Xhitlerns, England
 3.7December 6, 2017
 Can split at GBBF '17, day 3, thanks to Steve 10/08/17.
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>stevoj(13,376)
+          <t>stevoj(13,382)
 🇺🇸Boise, United States
 3.6December 3, 2017
 Can from Brewers Haven. Deep mahogany color, one finger fluffy beige head. Aroma us malts, dark, roasty, burnt toast. Taste us dry and dusty, leaves, tobacco, earthy. Malts at its…
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>explosivedog(9,851)
+          <t>explosivedog(9,864)
 🇺🇸New York, United States
 3.8November 25, 2017
 On tap at 1925 Brewing Co. Pours deep red brown. Strawberry, pepper, peach, caramel, sweet toffee finish with a nice bitter edge. Full body. Nice.
@@ -3583,7 +3583,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aurelius(6,787)
+          <t>Aurelius(6,789)
 🇺🇸Tallahassee, United States
 3.4October 15, 2017
 Clear, ruddy cola pour, off white to tan head. Menacing 12oz can. Tannic, red ale aroma, with wood, cherry, incense. Chalky chocolate notes up front, cypress, fairly dry, a little astringent.…
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ken1(4,580)
+          <t>ken1(4,582)
 🇩🇰Aarhus, Denmark
 4.0September 7, 2017
 Aroma: Fruity hops with dusty notes. 
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>wlajwl(11,496)
+          <t>wlajwl(11,503)
 🇺🇸Quad Cities, United States
 4.0April 18, 2017
 Aroma is pine, caramel malts and a slightly Black IPA quality. The flavor is grapefruit, caramel malts, fruit and a mix of mild sweetness and spicy/bitter finish.
@@ -4982,7 +4982,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nisse666(13,625)
+          <t>Nisse666(13,627)
 🇸🇪Göteborg, Sweden
 3.5March 28, 2017
 Bottle at En ÖL och Whiskeymässa cons 2017-03-26 Göteborg…
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HenrikSoegaard(19,302)
+          <t>HenrikSoegaard(19,303)
 🇩🇰Randers, Denmark
 3.9March 4, 2017
 Can. Creamy off-white good mostly lasting head. Red amber colour. Moderate malty and heavy hoppy aroma. Heavy bitter flavor. Long heavy bitter fiunish. Creamy palate.
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RobBestwick(1,330)
+          <t>RobBestwick(1,331)
 🇨🇦Calgary, Canada
 3.9February 7, 2017
 Bottle. Rich caramel aroma with a hint of citrus. Pours dark brown with a frothy yellowish well retaining head. Nicely balance flavour with lemon citrus mixed with caramel and…
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MarcoDL(8,853)
+          <t>MarcoDL(8,865)
 🇳🇱Netherlands
 3.3October 23, 2016
 Bottle at tasting. Aroma of hops, malt and pine. Flavor of licorice, piney hop, caramel and some malt. Decent.
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cmacklin(3,519)
+          <t>cmacklin(3,523)
 🇨🇦Lethbridge, Canada
 3.7October 21, 2016
 650ml bottle. Pours a hazy dark red with a medium, frothy, long lasting, beige head that leaves curtains of lace. Sweet aroma of caramel malt, roast, pine and orange. Sweet flavour of roasted…
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PabloZab(2,849)
+          <t>PabloZab(2,850)
 🇵🇱Wroclaw, Poland
 3.6October 6, 2016
 Can 355ml. Piwo delikatnie mgliste o ciemno miedzianej barwie, czerwonej pod światło. Piana obfita, średniopęcherzykowa, szybko znika zostawiając po sobie…
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>tmoreau(8,626)
+          <t>tmoreau(8,636)
 🇺🇸Lombard, United States
 3.7September 24, 2016
 12 oz. can at Lunar Brewing Co. poured to a Czech-pils glass, displaying a clear, mahogany color, with a frothy layer of tan foam, and ribbons &amp; spots of lacing. The nose was caramel, a…
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Camons(19,560)
+          <t>Camons(19,602)
 🇩🇰Hasselager, Denmark
 3.5September 1, 2016
 Draught @ Fermentoren, Aarhus. Pours dark brown with a creamy tan head. Aroma of malt, light caramel, fruity hops, citrus. Flavor is light sweet, light bitter, grass, fruit, citrusly…
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Holmen1(11,787)
+          <t>Holmen1(11,792)
 🇳🇴Stavanger, Norway
 4.1August 30, 2016
 Kveldens trede på Mi2, Cardinal aug-16, og denne også fra fat. Rødlig mahogne med flott skum som varer. Nydelig aroma! Mørke, godt modne frukter og (kirse)bær, furnunål og karamell…
@@ -7490,7 +7490,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KeefOz(3,446)
+          <t>KeefOz(3,447)
 🇦🇺TARRAGINDI, Australia
 3.6August 29, 2016
 Poured a clear coppery-red colour with a one- to two-finger light tan dense foam head that retained well and laced OK in rings. Aroma strongly and very nicely of pine, caramel malt, hints of…
@@ -7560,7 +7560,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jesperhammer(6,993)
+          <t>jesperhammer(7,001)
 🇩🇰Copenhagen, Denmark
 3.9August 29, 2016
 25-AUG-2016, bottle @Copenhagen Beer &amp; Whisky Festival.
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sigmund(12,249)
+          <t>Sigmund(12,264)
 🇳🇴Tau, Norway
 3.8August 25, 2016
 On tap at Cardinal Pub &amp; Bar, Stavanger. Dark red color, nearly black. Moderate and creamy beige head. Hoppy aroma with notes of grapefruit, pine, herbs and spices, also notes of…
@@ -7840,7 +7840,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tide(8,851)
+          <t>Tide(8,855)
 🇫🇮Helsinki, Finland
 3.5August 21, 2016
 Draught at Jack's Cannery. Dark brown color, white head. Bitter taste with citrus, rye, hops, nuts, malts and bit of pine. Bitter finish with citrus, hops, nuts, rye and pine. Very nice brew.
@@ -8049,7 +8049,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jgb9348(9,562)
+          <t>jgb9348(9,566)
 🇺🇸Arlington (Pentagon City), United States
 3.6August 13, 2016
 Rich hazy deep amber coloured body with a thick, four centimetre tall tan head. Aroma of alcohol, caramel, toffee, grain, bright earthy hops and some pine as well. Medium to…
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MiP(19,171)
+          <t>MiP(19,172)
 🇩🇰Sønderborg, Denmark
 3.6August 13, 2016
 Can, 6.8%. Good fruity aroma. Clear dark amber colour. Small off-white head. The flavour is fruity with a good grapefruit hoppiness. Good mouthfeel, too.
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>melush(12,208)
+          <t>melush(12,220)
 🇪🇸Spain
 3.8August 12, 2016
 Can 35,5cl
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>IPAgutten79(1,097)
+          <t>IPAgutten79(1,099)
 🇳🇴Skui, Norway
 3.9July 11, 2016
 Gylden ugjennomsiktig med høyt hvitt skum. Aroma av furu, gress og malt. Smaken er furu, mild karamell og sitrus. Søt, før en lun bitterhet gjør seg gjeldende. Smak av bær i ettersmake…
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Taboada(5,405)
+          <t>Taboada(5,406)
 🇪🇸Compostela (Galiza), Spain
 3.8July 4, 2016
 Bottle sample tasted at BBF Lab Madrid 2016 on the 02/07/2016. Dark reddish brown colour with a medium off white head. Aroma of roasted malts and caramel. Taste has…
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>bdleedahl(5,391)
+          <t>bdleedahl(5,394)
 🇳🇱Netherlands
 3.5June 5, 2016
 A nice mildly hopped dark ipa. Good balance of roasted malts and hop bitterness. Very slight astringent taste to my palate. Overall slightly above average for the style.…
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BroSpud(2,675)
+          <t>BroSpud(2,678)
 🇺🇸United States
 3.9March 18, 2016
 12oz can. Pours red with an off white head. Nice hop aroma. Note of citrus, pine, dark fruits, more. This is great! Nice surprise from a brewery I hadn’t heard of before. Gonna load u…
@@ -10351,7 +10351,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GDTRFB(8,236)
+          <t>GDTRFB(8,239)
 🇺🇸Marblehead, United States
 3.5March 11, 2016
 Pours deep mahogany into a shaker. Tan head with medium retention recedes to nothing. Caramel and citrus aromas. Soft with dark caramel and resin front to back. Lasting nutty earth…
@@ -10633,7 +10633,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>bierkoning(19,182)
+          <t>bierkoning(19,183)
 🇳🇱La Tropica/Doarp, Netherlands
 3.4February 21, 2016
 From bottle. Amber color. Red fruit and grass in the aroma and flavor. Malty sweetish, caramelly flavor. Hint of metal in the finish.
@@ -10910,7 +10910,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Fin(15,993)
+          <t>Fin(15,996)
 🇩🇪Attenkirchen, Germany
 3.8February 5, 2016
 Can from Beer Gonzo webshop, Earlsdon, Coventry. Consumed at home Friday 5th February 2016   Rich blood red on the pour with a sticky light beige head that is a clinger to the glass.…
@@ -11049,7 +11049,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>deanso(15,166)
+          <t>deanso(15,171)
 🇬🇧Doncaster, England
 3.4January 16, 2016
 On tap at the great beer bar shared with Jmgreenuk.
@@ -11120,7 +11120,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>jmgreenuk(17,115)
+          <t>jmgreenuk(17,130)
 🇲🇾Kuala Lumpur, Malaysia
 3.3January 16, 2016
 Tap at the Great Beer Bar, Kuala Lumpur. Poured a clear reddish brown with a frothy light tan head. The aroma is yeast, light woody hop. The flavour is moderate bitter with a light watery…
@@ -11537,7 +11537,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>jamestulloch(7,680)
+          <t>jamestulloch(7,687)
 🇬🇧Edinburgh, Scotland
 3.9December 23, 2015
 Can from BottleDog, Edinburgh. Attractive ruby body with a dense beige head. Good lacing. Aroma of honey, lemon, blackcurrant and Earl Grey tea. Flavour of syrup, roasted malt,…
@@ -11746,7 +11746,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ANZUShophunter(2,751)
+          <t>ANZUShophunter(2,754)
 🇦🇺Brisbane, Australia
 4.3December 5, 2015
 From bottle in tulip glass. Pours deep mahogany with khaki, two-finger, frothy head. Rich earthy hops and a bit of malt on the nose paving the way for a battle on the palate of these…
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>wheresthepath(3,204)
+          <t>wheresthepath(3,205)
 🇬🇧England
 3.8December 4, 2015
 Can from Beers of Europe. Brown with a beige head. Up front there’s a strong, pleasing whiff of piney grapefruitey US hops. On drinking there’s chocolate, oak, pine, red berries and…
@@ -12026,7 +12026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Hermod(14,397)
+          <t>Hermod(14,429)
 🇫🇮Vantaa, Finland
 3.7November 25, 2015
 650ml bottle@Stadin panimobaari. Pours mahogany color with a thick white head. Hoppy, caramelly, mild spicy aroma. Malty. Flavor has sweetness, hops, dark fruits, caramel malt.…
@@ -12096,7 +12096,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NikkTwist(5,271)
+          <t>NikkTwist(5,277)
 🇺🇸Philadelphia, United States
 3.6November 21, 2015
 Draft at Eulogy. Very dark ruby black with lasting soapy tan foam. Fuller and juicier than expected. Dark red stone fruit and burnt malt and hops. Black currant, black cherry and…
@@ -12654,7 +12654,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>evergreen0199(5,313)
+          <t>evergreen0199(5,318)
 🇬🇧Chorleywood, England
 3.6October 25, 2015
 Can from Total Wine, North Miami, Florida, USA. A dark amber/brown coloured pour with a medium off white head on top. Hoppy, malty, caramel aroma. Tastes similar, hoppy, malty…
@@ -13282,7 +13282,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>jake65(4,328)
+          <t>jake65(4,339)
 🇺🇸Lewiston, United States
 3.7September 19, 2015
 Can. Dark amber color with a thick tan head. Plenty of sheet lacing. A pleasant aroma of citrus and florals with moderate malt. Taste is on the sweeter side, hoppy, and nutty. Good hop…
@@ -13703,7 +13703,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Braudog(8,384)
+          <t>Braudog(8,385)
 🇺🇸Yorktown, United States
 3.7August 5, 2015
 Bottle. Pours a big old muddy pile of foam and ruby red gunk. This has an aggressively malty, caramel character, full of stickiness and heaviness. Chewy, chewy, chewy. (#6016,…
@@ -13981,7 +13981,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>thorongil2(6,233)
+          <t>thorongil2(6,242)
 🇺🇸Camas, United States
 3.3July 17, 2015
 (tap) dark amber colour with a small beige head; aroma of grapefruit; palate a bit astringent; dry flavour with a long, medium bitter finish
@@ -14469,7 +14469,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>hopdog(20,899)
+          <t>hopdog(20,964)
 🇺🇸Lansdale, United States
 3.6May 26, 2015
 22oz bottle. Poured a deeper amber color with an off white head. Caramel, citrus, pine and some toastiness.
@@ -14818,7 +14818,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Gerbeer(6,367)
+          <t>Gerbeer(6,371)
 🇨🇦Nanoose Bay, Canada
 3.8April 27, 2015
 650 ml bottle. Pours a dark mahogany with moderate to light head that settles quickly. Aromas of sweetened grapefruit, dark berries, pine, and brown sugar. Flavors of pine, berries, toasty…
@@ -15167,7 +15167,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>mcberko(36,641)
+          <t>mcberko(36,657)
 🇨🇦Vancouver, Canada
 3.6April 5, 2015
 22 oz. bottle, pours a dark red with a small off-white head. Nose brings out piney and resinous hops, and light caramel to back. Flavour is well-balanced, with a good balance of piney hops…
@@ -15516,7 +15516,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Iphonephan(10,683)
+          <t>Iphonephan(10,689)
 🇺🇸JACKSON HOLE, United States
 3.5March 29, 2015
 On draft at Trio in Kill Devill HIlls, NC. Pours a clear brownish amber with an ecru head. Nutty nose. Malty flavors with some roast notes. Smooth, slightly bitter finish.
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>vanvenlo(2,492)
+          <t>vanvenlo(2,494)
 🇦🇺Glen Iris, Australia
 3.7January 26, 2015
 Purvis Cellars bottle(26-Jan-2014)Sweet fruit malt spice aroma.Dark red brown,good head&amp;sheet lace.Sweet fruit malt spice.Lovely balanced malt fruit finish&amp;aftertaste.
@@ -16277,7 +16277,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>italianjohn(5,219)
+          <t>italianjohn(5,222)
 🇺🇸Penndel, United States
 3.5January 1, 2015
 Clear deep reddish brown beige head very nice looking beer .... Aroma of roasted Malts, piney, chewy caramel malts and citrusy ..... Taste is very rich and malty with a citrusy, piney…
@@ -17254,7 +17254,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>allmyvinyl(17,003)
+          <t>allmyvinyl(17,010)
 🇬🇧Edinburgh, Scotland
 3.5July 8, 2014
 Keg at The Hanging Bat. Pours amber with a thin off-white head. Aromas are pine and resin, bit skunky almost. Taste brings some malt sweetness, citrus bitterness. Medium body,…
@@ -17324,7 +17324,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>madmitch76(34,781)
+          <t>madmitch76(34,812)
 🇬🇧England
 3.7July 6, 2014
 5th July 2014
@@ -17533,7 +17533,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>baraciisch(5,211)
+          <t>baraciisch(5,213)
 🇺🇸United States
 3.7June 26, 2014
 Caramel amber in color... Aroma of citrus hops, caramel malt... Flavor is smooth caramel malts, big citrus hop notes... Really sessionable but not too exciting…
@@ -17603,7 +17603,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Garrold(10,012)
+          <t>Garrold(10,013)
 🇬🇧Sheffield, England
 3.7June 18, 2014
 Tap at Crafty Crow, Nottingham. Clear, ruby red. Thick, bubbly, off white head. Blackcurrant cordial. Light toffee. Pink grapefruit. Taste is light bitter. Fresh palate. Finish is long,…
@@ -17812,7 +17812,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>RobertDale(10,265)
+          <t>RobertDale(10,268)
 🇺🇸Lansing, United States
 3.2April 21, 2014
 Bomber. Pours reddish brown with a nice beige head. Aroma of malt, caramel, and fruit. Taste is malt, citrus, caramel, and spice. Just didn’t do much for me.
@@ -17950,7 +17950,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>kevinsenn(3,262)
+          <t>kevinsenn(3,264)
 🇨🇦Victoria, Canada
 4.0March 20, 2014
 On tap. Dark ruby, beige head. Citrus and caramel aroma. Big malty, even chocolatey taste, with citrus hips and bitter finish. Bordering on black IPA taste. Very good.
@@ -19269,7 +19269,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>KyotoLefty(14,482)
+          <t>KyotoLefty(14,484)
 🇯🇵Kyoto, Japan
 3.6October 4, 2013
 Tap at Tadg’s. Great nose—tangy grapefruit, amber malts. Red-brown with lace. Nice hoppy flavor, caramel, earth, grass, citrus. A good hoppy amber a la Hophead Red.
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Davros(4,638)
+          <t>Davros(4,640)
 🇦🇺Melbourne, Australia
 3.7May 13, 2013
 Pours brown with a large head.
@@ -21289,7 +21289,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Oscbert(1,736)
+          <t>Oscbert(1,737)
 🇺🇸Lincoln, United States
 3.6January 1, 2013
 ~Citrusy orange aroma with earthy and floral tones, sweet caramel richness.…
@@ -21499,7 +21499,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>mike_77(12,711)
+          <t>mike_77(12,717)
 🇳🇱Breda, Netherlands
 3.8November 20, 2012
 Deep red colour. Great mix of sharp tropical fruit IPA flavours and red berry sweetness.
@@ -21637,7 +21637,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>phaleslu(15,287)
+          <t>phaleslu(15,295)
 🇺🇸Cincinnati, United States
 3.7November 7, 2012
 Draft at Creek Monkey. Pours a deep but clear brownish-amber with a small off-white head. Aroma of citrusy and piney hops, dark and caramel malts, chocolate, and earth. Flavor of…
@@ -22123,7 +22123,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>bytemesis(13,933)
+          <t>bytemesis(13,938)
 🇺🇸Sunnyvale, United States
 3.8September 27, 2012
 Bottle. Pours clear deep amber brown with a small beige head and little lacing. Aroma is grapefruit and caramel. Flavor is lightly sweet with a strong caramel backbone with grapefruit,…
@@ -22262,7 +22262,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>fonefan(70,891)
+          <t>fonefan(70,918)
 🇩🇰VestJylland, Denmark
 3.7September 23, 2012
 Bottle 22fl.oz.
@@ -23027,7 +23027,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Plovmand(11,358)
+          <t>Plovmand(11,361)
 🇩🇰Grindsted, Denmark
 3.5August 18, 2012
 Bottle. Pours reddish amber with a medium creamy light beige head. The aroma is citric and malty with notes of berries. The flavour is bitter and citric with some fruity notes. Bit tart finish.
@@ -23166,7 +23166,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Rasmus40(31,650)
+          <t>Rasmus40(31,652)
 🇩🇰Beder, Aarhus, Denmark
 3.9August 17, 2012
 Bottle @ pre-TFODRBSG, Ulfborg. Hazy dark red amber with a lasting off-white head. Aroma is sweet, malty, caramel and moderate hoppy - fruity and citrus. Flavor is quite sweet and…
@@ -23515,7 +23515,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>drfabulous(14,686)
+          <t>drfabulous(14,687)
 🇺🇸Lexington, United States
 3.7August 9, 2012
 22 ounce form Blackwell’s. Big malty and hoppy red. Lots of bitterness in there as well. Not too sweet. Caramel finish.
@@ -23723,7 +23723,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>olio(14,751)
+          <t>olio(14,755)
 🇫🇮Tampere, Finland
 3.4July 19, 2012
 Cask @ Toronado, San Francisco.…
@@ -23793,7 +23793,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Christian(16,455)
+          <t>Christian(16,456)
 🇩🇰Odense, Denmark
 3.6July 3, 2012
 Markhaven Summer Fun 2012. Ruby dark brown colour with a lasting white head. Malty aroma of caramel and toffee, with fruity hops, tangerine, white wine, peach and a grassy touch.…
@@ -24142,7 +24142,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>chrisv10(23,975)
+          <t>chrisv10(23,978)
 🇩🇰Denmark
 3.9June 12, 2012
 Bottle. Very dark amber/red wit big beige head. Aroma is malt, fruit, citrus, hops, elderflower, floral and caramel. Flavour is malt, fruit, caramel, hops, citrus, pine, medium sweet, little…
@@ -24282,7 +24282,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>hawthorne00(7,220)
+          <t>hawthorne00(7,222)
 🇦🇺Melbourne, Australia
 3.5June 4, 2012
 Bottle, 10C. Dark red with a large beige head. Aroma of oranges and chocolate, toast, white pepper, soap, herbs, aging lawn clippings.   Medium bodied, slightly creamy. Taste has toffee…
@@ -24842,7 +24842,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Pinball(13,783)
+          <t>Pinball(13,785)
 🇩🇰Copenhagen, Denmark
 3.3May 2, 2012
 bottle at ølbutikken.
@@ -25053,7 +25053,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>joergen(39,716)
+          <t>joergen(39,740)
 🇩🇰Frederiksberg, Denmark
 3.5April 29, 2012
 Bottle at Ølbutikken.
@@ -25193,7 +25193,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ungstrup(48,900)
+          <t>Ungstrup(48,914)
 🇩🇰Citizen of the universe, Denmark
 3.4April 28, 2012
 Bottled. A dark red beer with a huge orangey head. The aroma has notes of citrusy hops, caramel, and malt. The flavor is sweet with notes of hops, citrusy hops, malt, and dust, leading…
@@ -25682,7 +25682,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Ratman197(23,244)
+          <t>Ratman197(23,252)
 🇺🇸Denver, United States
 3.7March 24, 2012
 Bomber pored a hazy reddish amber with a lasting ambe head. Aromas of carmel, skunk bud, grapefruit and pine. Palate was medium bodied and crisp with a dry finish. Flavors of carmel,…
@@ -25962,7 +25962,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Ibrew2or3(10,256)
+          <t>Ibrew2or3(10,258)
 🇺🇸Tempe, United States
 3.9March 4, 2012
 Poured up on tap at the Pleasanton Hopyard with deep amber body and thin copper edges as well as a tan head of foam that leaves behind some spotty lacing. The aroma offers up…
@@ -26590,7 +26590,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>bhensonb(20,708)
+          <t>bhensonb(20,714)
 🇺🇸Woodland, United States
 3.5November 6, 2011
 Tap at the Rubicon. Pours darkly garnet with a creamy beige head. Light citrus aroma. Near med body. Flavor is roast malt with some medium dark fruit and enough hop to keep the malt…
@@ -26660,7 +26660,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>nickd717(8,652)
+          <t>nickd717(8,666)
 🇺🇸San Francisco, United States
 3.8October 12, 2011
 Draft.  Pours a somewhat hazy reddish color with a well-formed off-white head and good lacing.  The aroma has citrus and pine to balance a subdued caramel malt base.  The flavor also has…
@@ -27009,7 +27009,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>brokensail(20,333)
+          <t>brokensail(20,346)
 🇺🇸Bay Area, United States
 3.6July 12, 2011
 A: The beer pours a dark amber color with a frothy off-white/khaki head and excellent lacing.…
